--- a/git_cmd_list.xlsx
+++ b/git_cmd_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1286,14 @@
   </si>
   <si>
     <t>切换至指定分支。且对应分支的所有内容自动被拷入工作目录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建别名，为用户级别名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global alias.blog 'log --oneline --all -- graph'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1929,13 +1937,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G68"/>
+  <dimension ref="B1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2575,13 +2583,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="F41" s="7"/>
     </row>
@@ -2593,14 +2601,12 @@
         <v>113</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="12">
@@ -2610,16 +2616,13 @@
         <v>113</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -2630,15 +2633,17 @@
         <v>113</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="12">
@@ -2648,14 +2653,15 @@
         <v>113</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="12">
@@ -2665,13 +2671,13 @@
         <v>113</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -2682,12 +2688,14 @@
         <v>113</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="12">
@@ -2697,14 +2705,12 @@
         <v>113</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="12">
@@ -2714,12 +2720,14 @@
         <v>113</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="12">
@@ -2729,10 +2737,10 @@
         <v>113</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F50" s="7"/>
     </row>
@@ -2744,10 +2752,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F51" s="7"/>
     </row>
@@ -2759,10 +2767,10 @@
         <v>113</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F52" s="7"/>
     </row>
@@ -2774,10 +2782,10 @@
         <v>113</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F53" s="7"/>
     </row>
@@ -2786,17 +2794,15 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="12">
@@ -2806,12 +2812,14 @@
         <v>148</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="12">
@@ -2821,14 +2829,12 @@
         <v>148</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="12">
@@ -2838,13 +2844,13 @@
         <v>148</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -2854,9 +2860,15 @@
       <c r="C58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="12">
@@ -2866,7 +2878,7 @@
         <v>148</v>
       </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="2:6">
@@ -2876,7 +2888,7 @@
       <c r="C60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="3"/>
       <c r="F60" s="7"/>
     </row>
@@ -2884,7 +2896,9 @@
       <c r="B61" s="12">
         <v>59</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="7"/>
@@ -2943,12 +2957,21 @@
       <c r="E67" s="3"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="11"/>
+    <row r="68" spans="2:6">
+      <c r="B68" s="12">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/git_cmd_list.xlsx
+++ b/git_cmd_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>优先使用暂存区数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取暂存区与提交区的比较结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1294,6 +1290,42 @@
   </si>
   <si>
     <t>git config --global alias.blog 'log --oneline --all -- graph'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取暂存区与提交区的比较结果，若缓冲区为空，则无比较结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff tag/branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前工作目录与目标分支或版本的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定分支或版本间的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff tag/branch1 tag/branch2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知：V2是如何由V1而得：红减，绿增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先使用暂存区数据，无差别，则无反馈。明示当前目录内容的获取方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明示当前暂存内容的获取方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明示当前目录内容如何由目标版本获取。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1937,13 +1969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G69"/>
+  <dimension ref="B1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1980,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>4</v>
@@ -2000,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>9</v>
@@ -2009,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -2017,31 +2049,33 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -2049,16 +2083,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -2066,82 +2100,83 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="12">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="12">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="12">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -2149,31 +2184,32 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="12">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -2181,60 +2217,62 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="12">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="12">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="12">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -2243,13 +2281,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2258,13 +2296,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -2273,13 +2311,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -2288,48 +2326,46 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>40</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="12">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="12">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>177</v>
+        <v>36</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2337,13 +2373,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7"/>
     </row>
@@ -2352,45 +2388,45 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="12">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="12">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F28" s="7"/>
     </row>
@@ -2399,16 +2435,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2416,13 +2452,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -2431,13 +2467,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>58</v>
@@ -2448,13 +2484,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7"/>
     </row>
@@ -2463,28 +2499,30 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="12">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="F34" s="7"/>
     </row>
@@ -2493,13 +2531,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F35" s="7"/>
     </row>
@@ -2508,13 +2546,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>96</v>
-      </c>
       <c r="E36" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -2523,13 +2561,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F37" s="7"/>
     </row>
@@ -2538,13 +2576,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F38" s="7"/>
     </row>
@@ -2553,13 +2591,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="7"/>
     </row>
@@ -2568,13 +2606,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F40" s="7"/>
     </row>
@@ -2583,13 +2621,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="F41" s="7"/>
     </row>
@@ -2598,13 +2636,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="F42" s="7"/>
     </row>
@@ -2613,71 +2651,66 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="12">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="E44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="12">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="25"/>
+        <v>116</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="12">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -2685,48 +2718,51 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="12">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="12">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -2734,13 +2770,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F50" s="7"/>
     </row>
@@ -2749,28 +2785,30 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="12">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F52" s="7"/>
     </row>
@@ -2779,13 +2817,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F53" s="7"/>
     </row>
@@ -2794,13 +2832,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F54" s="7"/>
     </row>
@@ -2809,30 +2847,28 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="12">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F56" s="7"/>
     </row>
@@ -2841,16 +2877,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>154</v>
-      </c>
       <c r="E57" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -2858,57 +2894,69 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>161</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="12">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="12">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="12">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="12">
         <v>60</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="19"/>
       <c r="E62" s="3"/>
       <c r="F62" s="7"/>
     </row>
@@ -2916,7 +2964,9 @@
       <c r="B63" s="12">
         <v>61</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="7"/>
@@ -2966,12 +3016,30 @@
       <c r="E68" s="3"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="11"/>
+    <row r="69" spans="2:6">
+      <c r="B69" s="12">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="12">
+        <v>68</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3005,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>5</v>
@@ -3019,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -3031,10 +3099,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -3043,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -3055,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -3067,10 +3135,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -3079,10 +3147,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -3091,10 +3159,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -3103,10 +3171,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -3115,10 +3183,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -3127,10 +3195,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3139,10 +3207,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -3151,13 +3219,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -3165,10 +3233,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -3177,10 +3245,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -3189,10 +3257,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E17" s="7"/>
     </row>
